--- a/documents/00_Sitzungen/Milestone_3/Zeitaufwanderfassung/Excel/23_Zeiterfassung_Alle_Gruppe23_MS3.xlsx
+++ b/documents/00_Sitzungen/Milestone_3/Zeitaufwanderfassung/Excel/23_Zeiterfassung_Alle_Gruppe23_MS3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\ZHAW\PSIT1\PSIT2\MS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaWorkspace\Praktika\PSIT2\documents\00_Sitzungen\Milestone_3\Zeitaufwanderfassung\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{564ACD78-E6F9-4305-80AF-438F704A1FA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{100C4817-6E81-4B52-878C-82CA237BE007}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{41C5A5EF-7409-4D51-A49E-327120042783}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Total</t>
   </si>
@@ -87,18 +87,12 @@
     <t>5 Stunden</t>
   </si>
   <si>
-    <t>4 Stunden</t>
-  </si>
-  <si>
     <t>3 Stunden</t>
   </si>
   <si>
     <t>55 Stunden 30 Minuten</t>
   </si>
   <si>
-    <t>16 Stunden 40 Minuten</t>
-  </si>
-  <si>
     <t>15 Stunden 55 Minuten</t>
   </si>
   <si>
@@ -127,6 +121,18 @@
   </si>
   <si>
     <t>12 Stunden 40 Minuten</t>
+  </si>
+  <si>
+    <t>110 Stunden 35 Minuten</t>
+  </si>
+  <si>
+    <t>16 Stunden 5 Minuten</t>
+  </si>
+  <si>
+    <t>6 Stunden</t>
+  </si>
+  <si>
+    <t>14 Stunden 40 Minuten</t>
   </si>
 </sst>
 </file>
@@ -658,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241310-9E78-4C32-87C8-27A1B8B2E450}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -711,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -719,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -727,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -735,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -747,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -758,13 +764,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -772,13 +778,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -786,13 +792,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -800,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
@@ -814,11 +820,11 @@
         <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/documents/00_Sitzungen/Milestone_3/Zeitaufwanderfassung/Excel/23_Zeiterfassung_Alle_Gruppe23_MS3.xlsx
+++ b/documents/00_Sitzungen/Milestone_3/Zeitaufwanderfassung/Excel/23_Zeiterfassung_Alle_Gruppe23_MS3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaWorkspace\Praktika\PSIT2\documents\00_Sitzungen\Milestone_3\Zeitaufwanderfassung\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{100C4817-6E81-4B52-878C-82CA237BE007}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EB500C6-AB04-408C-B8EE-8028267AE07D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{41C5A5EF-7409-4D51-A49E-327120042783}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Total</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>14 Stunden 5 Minuten</t>
-  </si>
-  <si>
-    <t>112 Stunden 35 Minuten</t>
   </si>
   <si>
     <t>12 Stunden 40 Minuten</t>
@@ -664,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241310-9E78-4C32-87C8-27A1B8B2E450}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -709,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -733,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.4">
@@ -778,13 +775,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
